--- a/03 Time Series Forecasting With Excel/Rishabh Mishra- YT Channel Data.xlsx
+++ b/03 Time Series Forecasting With Excel/Rishabh Mishra- YT Channel Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b7f320934ce7607/06 Data Science ^0 Analytics/Practice Projects/45 Time Series Forecasting With Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b7f320934ce7607/06 Data Science ^0 Analytics/Github/Microsoft-Excel-For-Analytics/03 Time Series Forecasting With Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{F365B99B-2A37-4826-A897-2FC4BE108386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC3738CE-AABB-4BF9-BE57-9E6B7A0399BA}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:1_{F365B99B-2A37-4826-A897-2FC4BE108386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF2737FE-BA8E-4B72-A52E-16DB2AC5AF33}"/>
   <bookViews>
-    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="12401" xr2:uid="{7E20F6C1-14D4-42C9-8E55-98360864FC46}"/>
+    <workbookView xWindow="-104" yWindow="-104" windowWidth="20098" windowHeight="11914" xr2:uid="{7E20F6C1-14D4-42C9-8E55-98360864FC46}"/>
   </bookViews>
   <sheets>
     <sheet name="RM- YT Data" sheetId="4" r:id="rId1"/>
@@ -308,7 +308,36 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="38100" cap="rnd">
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
@@ -317,25 +346,14 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="4"/>
+            <c:order val="3"/>
             <c:forward val="90"/>
             <c:dispRSqr val="1"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.59893863866050034"/>
-                  <c:y val="3.5686274509803924E-3"/>
-                </c:manualLayout>
-              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="tx2">
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -348,7 +366,10 @@
                   <a:pPr>
                     <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1"/>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -2483,16 +2504,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>352124</xdr:colOff>
-      <xdr:row>216</xdr:row>
-      <xdr:rowOff>137173</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>267320</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>184288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>203956</xdr:colOff>
-      <xdr:row>232</xdr:row>
-      <xdr:rowOff>58508</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>511092</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>91085</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2521,9 +2542,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2561,7 +2582,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2667,7 +2688,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2809,7 +2830,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2819,17 +2840,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BA17C2-CA79-4078-B6F7-7FCD482A9F54}">
   <dimension ref="A1:G231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C222" sqref="C222"/>
+    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L221" sqref="L221"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.55" x14ac:dyDescent="0.35">
       <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
@@ -2837,7 +2858,7 @@
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2845,7 +2866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>44713</v>
       </c>
@@ -2853,7 +2874,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>44714</v>
       </c>
@@ -2861,7 +2882,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>44715</v>
       </c>
@@ -2869,7 +2890,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>44716</v>
       </c>
@@ -2877,7 +2898,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>44717</v>
       </c>
@@ -2885,7 +2906,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>44718</v>
       </c>
@@ -2893,7 +2914,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>44719</v>
       </c>
@@ -2901,7 +2922,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>44720</v>
       </c>
@@ -2909,7 +2930,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>44721</v>
       </c>
@@ -2917,7 +2938,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>44722</v>
       </c>
@@ -2925,7 +2946,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>44723</v>
       </c>
@@ -2933,7 +2954,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>44724</v>
       </c>
@@ -2941,7 +2962,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>44725</v>
       </c>
@@ -2949,7 +2970,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>44726</v>
       </c>
@@ -2957,7 +2978,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>44727</v>
       </c>
@@ -2965,7 +2986,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>44728</v>
       </c>
@@ -2973,7 +2994,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>44729</v>
       </c>
@@ -2981,7 +3002,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>44730</v>
       </c>
@@ -2989,7 +3010,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>44731</v>
       </c>
@@ -2997,7 +3018,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>44732</v>
       </c>
@@ -3005,7 +3026,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>44733</v>
       </c>
@@ -3013,7 +3034,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>44734</v>
       </c>
@@ -3021,7 +3042,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>44735</v>
       </c>
@@ -3029,7 +3050,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>44736</v>
       </c>
@@ -3037,7 +3058,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>44737</v>
       </c>
@@ -3045,7 +3066,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>44738</v>
       </c>
@@ -3053,7 +3074,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>44739</v>
       </c>
@@ -3061,7 +3082,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>44740</v>
       </c>
@@ -3069,7 +3090,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>44741</v>
       </c>
@@ -3077,7 +3098,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>44742</v>
       </c>
@@ -3085,7 +3106,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>44743</v>
       </c>
@@ -3093,7 +3114,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>44744</v>
       </c>
@@ -3101,7 +3122,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>44745</v>
       </c>
@@ -3109,7 +3130,7 @@
         <v>548.5</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>44746</v>
       </c>
@@ -3117,7 +3138,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>44747</v>
       </c>
@@ -3125,7 +3146,7 @@
         <v>978.5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>44748</v>
       </c>
@@ -3133,7 +3154,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>44749</v>
       </c>
@@ -3141,7 +3162,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>44750</v>
       </c>
@@ -3149,7 +3170,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>44751</v>
       </c>
@@ -3157,7 +3178,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>44752</v>
       </c>
@@ -3165,7 +3186,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>44753</v>
       </c>
@@ -3173,7 +3194,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>44754</v>
       </c>
@@ -3181,7 +3202,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>44755</v>
       </c>
@@ -3189,7 +3210,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>44756</v>
       </c>
@@ -3197,7 +3218,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>44757</v>
       </c>
@@ -3205,7 +3226,7 @@
         <v>808.5</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>44758</v>
       </c>
@@ -3213,7 +3234,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>44759</v>
       </c>
@@ -3221,7 +3242,7 @@
         <v>621.5</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>44760</v>
       </c>
@@ -3229,7 +3250,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>44761</v>
       </c>
@@ -3237,7 +3258,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>44762</v>
       </c>
@@ -3245,7 +3266,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>44763</v>
       </c>
@@ -3253,7 +3274,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>44764</v>
       </c>
@@ -3261,7 +3282,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>44765</v>
       </c>
@@ -3269,7 +3290,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>44766</v>
       </c>
@@ -3277,7 +3298,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>44767</v>
       </c>
@@ -3285,7 +3306,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>44768</v>
       </c>
@@ -3293,7 +3314,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>44769</v>
       </c>
@@ -3301,7 +3322,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>44770</v>
       </c>
@@ -3309,7 +3330,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>44771</v>
       </c>
@@ -3317,7 +3338,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>44772</v>
       </c>
@@ -3325,7 +3346,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>44773</v>
       </c>
@@ -3333,7 +3354,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>44774</v>
       </c>
@@ -3341,7 +3362,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>44775</v>
       </c>
@@ -3349,7 +3370,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>44776</v>
       </c>
@@ -3357,7 +3378,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>44777</v>
       </c>
@@ -3365,7 +3386,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>44778</v>
       </c>
@@ -3373,7 +3394,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>44779</v>
       </c>
@@ -3381,7 +3402,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>44780</v>
       </c>
@@ -3389,7 +3410,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>44781</v>
       </c>
@@ -3397,7 +3418,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>44782</v>
       </c>
@@ -3405,7 +3426,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>44783</v>
       </c>
@@ -3413,7 +3434,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>44784</v>
       </c>
@@ -3421,7 +3442,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>44785</v>
       </c>
@@ -3429,7 +3450,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>44786</v>
       </c>
@@ -3437,7 +3458,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>44787</v>
       </c>
@@ -3445,7 +3466,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>44788</v>
       </c>
@@ -3453,7 +3474,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>44789</v>
       </c>
@@ -3461,7 +3482,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>44790</v>
       </c>
@@ -3469,7 +3490,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>44791</v>
       </c>
@@ -3477,7 +3498,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>44792</v>
       </c>
@@ -3485,7 +3506,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>44793</v>
       </c>
@@ -3493,7 +3514,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>44794</v>
       </c>
@@ -3501,7 +3522,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>44795</v>
       </c>
@@ -3509,7 +3530,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>44796</v>
       </c>
@@ -3517,7 +3538,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>44797</v>
       </c>
@@ -3525,7 +3546,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>44798</v>
       </c>
@@ -3533,7 +3554,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>44799</v>
       </c>
@@ -3541,7 +3562,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>44800</v>
       </c>
@@ -3549,7 +3570,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>44801</v>
       </c>
@@ -3557,7 +3578,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>44802</v>
       </c>
@@ -3565,7 +3586,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>44803</v>
       </c>
@@ -3573,7 +3594,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>44804</v>
       </c>
@@ -3581,7 +3602,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>44805</v>
       </c>
@@ -3589,7 +3610,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>44806</v>
       </c>
@@ -3597,7 +3618,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>44807</v>
       </c>
@@ -3605,7 +3626,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>44808</v>
       </c>
@@ -3613,7 +3634,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>44809</v>
       </c>
@@ -3621,7 +3642,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>44810</v>
       </c>
@@ -3629,7 +3650,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>44811</v>
       </c>
@@ -3637,7 +3658,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>44812</v>
       </c>
@@ -3645,7 +3666,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>44813</v>
       </c>
@@ -3653,7 +3674,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>44814</v>
       </c>
@@ -3661,7 +3682,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>44815</v>
       </c>
@@ -3669,7 +3690,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>44816</v>
       </c>
@@ -3677,7 +3698,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>44817</v>
       </c>
@@ -3685,7 +3706,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>44818</v>
       </c>
@@ -3693,7 +3714,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>44819</v>
       </c>
@@ -3701,7 +3722,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>44820</v>
       </c>
@@ -3709,7 +3730,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>44821</v>
       </c>
@@ -3717,7 +3738,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>44822</v>
       </c>
@@ -3725,7 +3746,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>44823</v>
       </c>
@@ -3733,7 +3754,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>44824</v>
       </c>
@@ -3741,7 +3762,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>44825</v>
       </c>
@@ -3749,7 +3770,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>44826</v>
       </c>
@@ -3757,7 +3778,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>44827</v>
       </c>
@@ -3765,7 +3786,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>44828</v>
       </c>
@@ -3773,7 +3794,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>44829</v>
       </c>
@@ -3781,7 +3802,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>44830</v>
       </c>
@@ -3789,7 +3810,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>44831</v>
       </c>
@@ -3797,7 +3818,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>44832</v>
       </c>
@@ -3805,7 +3826,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>44833</v>
       </c>
@@ -3813,7 +3834,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>44834</v>
       </c>
@@ -3821,7 +3842,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>44835</v>
       </c>
@@ -3829,7 +3850,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>44836</v>
       </c>
@@ -3837,7 +3858,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>44837</v>
       </c>
@@ -3845,7 +3866,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>44838</v>
       </c>
@@ -3853,7 +3874,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>44839</v>
       </c>
@@ -3861,7 +3882,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>44840</v>
       </c>
@@ -3869,7 +3890,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>44841</v>
       </c>
@@ -3877,7 +3898,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>44842</v>
       </c>
@@ -3885,7 +3906,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>44843</v>
       </c>
@@ -3893,7 +3914,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>44844</v>
       </c>
@@ -3901,7 +3922,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>44845</v>
       </c>
@@ -3909,7 +3930,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>44846</v>
       </c>
@@ -3917,7 +3938,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>44847</v>
       </c>
@@ -3925,7 +3946,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>44848</v>
       </c>
@@ -3933,7 +3954,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>44849</v>
       </c>
@@ -3941,7 +3962,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>44850</v>
       </c>
@@ -3949,7 +3970,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>44851</v>
       </c>
@@ -3957,7 +3978,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>44852</v>
       </c>
@@ -3965,7 +3986,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>44853</v>
       </c>
@@ -3973,7 +3994,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>44854</v>
       </c>
@@ -3981,7 +4002,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>44855</v>
       </c>
@@ -3989,7 +4010,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>44856</v>
       </c>
@@ -3997,7 +4018,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>44857</v>
       </c>
@@ -4005,7 +4026,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>44858</v>
       </c>
@@ -4013,7 +4034,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>44859</v>
       </c>
@@ -4021,7 +4042,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>44860</v>
       </c>
@@ -4029,7 +4050,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>44861</v>
       </c>
@@ -4037,7 +4058,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>44862</v>
       </c>
@@ -4045,7 +4066,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>44863</v>
       </c>
@@ -4053,7 +4074,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>44864</v>
       </c>
@@ -4061,7 +4082,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>44865</v>
       </c>
@@ -4069,7 +4090,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>44866</v>
       </c>
@@ -4077,7 +4098,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>44867</v>
       </c>
@@ -4085,7 +4106,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>44868</v>
       </c>
@@ -4093,7 +4114,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>44869</v>
       </c>
@@ -4101,7 +4122,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>44870</v>
       </c>
@@ -4109,7 +4130,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>44871</v>
       </c>
@@ -4117,7 +4138,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>44872</v>
       </c>
@@ -4125,7 +4146,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>44873</v>
       </c>
@@ -4133,7 +4154,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>44874</v>
       </c>
@@ -4141,7 +4162,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>44875</v>
       </c>
@@ -4149,7 +4170,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>44876</v>
       </c>
@@ -4157,7 +4178,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>44877</v>
       </c>
@@ -4165,7 +4186,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>44878</v>
       </c>
@@ -4173,7 +4194,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>44879</v>
       </c>
@@ -4181,7 +4202,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>44880</v>
       </c>
@@ -4189,7 +4210,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>44881</v>
       </c>
@@ -4197,7 +4218,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>44882</v>
       </c>
@@ -4205,7 +4226,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>44883</v>
       </c>
@@ -4213,7 +4234,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>44884</v>
       </c>
@@ -4221,7 +4242,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>44885</v>
       </c>
@@ -4229,7 +4250,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>44886</v>
       </c>
@@ -4237,7 +4258,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>44887</v>
       </c>
@@ -4245,7 +4266,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>44888</v>
       </c>
@@ -4253,7 +4274,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>44889</v>
       </c>
@@ -4261,7 +4282,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>44890</v>
       </c>
@@ -4269,7 +4290,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>44891</v>
       </c>
@@ -4277,7 +4298,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <v>44892</v>
       </c>
@@ -4285,7 +4306,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>44893</v>
       </c>
@@ -4293,7 +4314,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>44894</v>
       </c>
@@ -4301,7 +4322,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>44895</v>
       </c>
@@ -4309,7 +4330,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>44896</v>
       </c>
@@ -4317,7 +4338,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <v>44897</v>
       </c>
@@ -4325,7 +4346,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>44898</v>
       </c>
@@ -4333,7 +4354,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>44899</v>
       </c>
@@ -4341,7 +4362,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>44900</v>
       </c>
@@ -4349,7 +4370,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
         <v>44901</v>
       </c>
@@ -4357,7 +4378,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>44902</v>
       </c>
@@ -4365,7 +4386,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <v>44903</v>
       </c>
@@ -4373,7 +4394,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>44904</v>
       </c>
@@ -4381,7 +4402,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>44905</v>
       </c>
@@ -4389,7 +4410,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>44906</v>
       </c>
@@ -4397,7 +4418,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>44907</v>
       </c>
@@ -4405,7 +4426,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
         <v>44908</v>
       </c>
@@ -4413,7 +4434,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
         <v>44909</v>
       </c>
@@ -4421,7 +4442,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
         <v>44910</v>
       </c>
@@ -4429,7 +4450,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
         <v>44911</v>
       </c>
@@ -4437,7 +4458,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
         <v>44912</v>
       </c>
@@ -4445,7 +4466,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A203" s="2">
         <v>44913</v>
       </c>
@@ -4453,7 +4474,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A204" s="2">
         <v>44914</v>
       </c>
@@ -4461,7 +4482,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A205" s="2">
         <v>44915</v>
       </c>
@@ -4469,7 +4490,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A206" s="2">
         <v>44916</v>
       </c>
@@ -4477,7 +4498,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A207" s="2">
         <v>44917</v>
       </c>
@@ -4485,7 +4506,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A208" s="2">
         <v>44918</v>
       </c>
@@ -4493,7 +4514,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
         <v>44919</v>
       </c>
@@ -4501,7 +4522,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
         <v>44920</v>
       </c>
@@ -4509,7 +4530,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A211" s="2">
         <v>44921</v>
       </c>
@@ -4517,7 +4538,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
         <v>44922</v>
       </c>
@@ -4525,7 +4546,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A213" s="2">
         <v>44923</v>
       </c>
@@ -4533,7 +4554,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
         <v>44924</v>
       </c>
@@ -4541,7 +4562,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A215" s="2">
         <v>44925</v>
       </c>
@@ -4549,7 +4570,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
         <v>44926</v>
       </c>
@@ -4557,7 +4578,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A217" s="2">
         <v>44927</v>
       </c>
@@ -4565,7 +4586,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
         <v>44928</v>
       </c>
@@ -4573,7 +4594,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A219" s="2">
         <v>44929</v>
       </c>
@@ -4581,7 +4602,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A220" s="2">
         <v>44930</v>
       </c>
@@ -4589,7 +4610,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A221" s="2">
         <v>44931</v>
       </c>
@@ -4597,7 +4618,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A222" s="2">
         <v>44932</v>
       </c>
@@ -4605,7 +4626,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A223" s="2">
         <v>44933</v>
       </c>
@@ -4613,7 +4634,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A224" s="2">
         <v>44934</v>
       </c>
@@ -4621,7 +4642,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A225" s="2">
         <v>44935</v>
       </c>
@@ -4629,7 +4650,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A226" s="2">
         <v>44936</v>
       </c>
@@ -4637,7 +4658,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A227" s="2">
         <v>44937</v>
       </c>
@@ -4645,7 +4666,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A228" s="2">
         <v>44938</v>
       </c>
@@ -4653,7 +4674,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A229" s="2">
         <v>44939</v>
       </c>
@@ -4661,7 +4682,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A230" s="2">
         <v>44940</v>
       </c>
@@ -4669,7 +4690,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A231" s="2"/>
     </row>
   </sheetData>
@@ -4690,18 +4711,18 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.69921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.296875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16.69921875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="6" customWidth="1"/>
-    <col min="7" max="9" width="8.796875" style="6"/>
+    <col min="4" max="4" width="11.26953125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" style="6" customWidth="1"/>
+    <col min="7" max="9" width="8.81640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18.149999999999999" x14ac:dyDescent="0.35">
       <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
@@ -4712,7 +4733,7 @@
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
     </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="9" customFormat="1" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -4733,7 +4754,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="D3" s="6">
@@ -4743,7 +4764,7 @@
         <v>0.68610000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>44941</v>
       </c>
@@ -4757,7 +4778,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>44942</v>
       </c>
@@ -4771,7 +4792,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>44943</v>
       </c>
@@ -4785,7 +4806,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>44944</v>
       </c>
@@ -4799,7 +4820,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>44945</v>
       </c>
@@ -4813,7 +4834,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>44946</v>
       </c>
@@ -4827,7 +4848,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15.55" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>44947</v>
       </c>
@@ -4841,7 +4862,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="13"/>
     </row>
   </sheetData>
